--- a/doc/04_機能一覧_炙りえんがわ.xlsx
+++ b/doc/04_機能一覧_炙りえんがわ.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/itou-yoshihide-plusdojo2022_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BF8C080-F1DC-40CB-AE4A-70B387E73B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A96C031F-8522-4D8F-966A-5AAB15ECEDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -181,7 +179,13 @@
     <t>検索</t>
   </si>
   <si>
+    <t>WK001</t>
+  </si>
+  <si>
     <t>検索条件に沿って作品を検索</t>
+  </si>
+  <si>
+    <t>Java</t>
   </si>
   <si>
     <t>タイトル入力</t>
@@ -191,26 +195,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>WK002</t>
+  </si>
+  <si>
     <t>検索したい作品名やその一部が入力可能</t>
   </si>
   <si>
     <t>感想カテゴリ1</t>
   </si>
   <si>
+    <t>WK003</t>
+  </si>
+  <si>
     <t>検索する作品の感想カテゴリが選択可能</t>
   </si>
   <si>
     <t>感想カテゴリ2</t>
   </si>
   <si>
+    <t>WK004</t>
+  </si>
+  <si>
+    <t>検索する作品の感想カテゴリの2つ目が選択可能(AND検索）</t>
+  </si>
+  <si>
     <t>再生時間</t>
   </si>
   <si>
+    <t>WK005</t>
+  </si>
+  <si>
+    <t>検索する作品の再生時間が選択可能</t>
+  </si>
+  <si>
     <t>年代</t>
   </si>
   <si>
+    <t>WK006</t>
+  </si>
+  <si>
+    <t>検索する作品の年代が選択可能</t>
+  </si>
+  <si>
     <t>メニュー</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WK007</t>
+  </si>
+  <si>
+    <t>検索する作品のジャンルが選択可能
+また、レビューランキング、マイページ(ログイン状態で問い合わせも追加）に遷移</t>
+  </si>
+  <si>
+    <t>ルーレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WK008</t>
+  </si>
+  <si>
+    <t>ジャンルをルーレットで選定し、そのジャンルのおすすめ作品を提示</t>
   </si>
   <si>
     <t>アカウント機能</t>
@@ -220,24 +265,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>マイページ</t>
+  </si>
+  <si>
+    <t>WA001</t>
+  </si>
+  <si>
+    <t>自身の情報や投稿を確認・編集可能</t>
+  </si>
+  <si>
+    <t>ユーザーページ</t>
+  </si>
+  <si>
+    <t>WA002</t>
+  </si>
+  <si>
+    <t>FLIFREユーザーが投稿したレビューの確認が可能</t>
+  </si>
+  <si>
     <t>ログイン/会員登録</t>
   </si>
   <si>
-    <t>ルーレット機能</t>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ルーレット</t>
-    <phoneticPr fontId="1"/>
+    <t>WA003</t>
+  </si>
+  <si>
+    <t>ユーザ登録しているユーザーがログインできる。登録していないユーザーは登録可能</t>
   </si>
   <si>
     <t>レビュー・交流機能</t>
   </si>
   <si>
     <t>タイムライン</t>
+  </si>
+  <si>
+    <t>WR001</t>
+  </si>
+  <si>
+    <t>新着で投稿されたレビューを閲覧することが可能</t>
   </si>
   <si>
     <t>レビュー投稿</t>
@@ -247,12 +311,69 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>WR002</t>
+  </si>
+  <si>
+    <t>FLIFRE会員が好きな作品に対してレビューを書いて投稿することが可能</t>
+  </si>
+  <si>
+    <t>5段階評価</t>
+  </si>
+  <si>
+    <t>WR003</t>
+  </si>
+  <si>
+    <t>レビュー投稿する際に星で5段階評価</t>
+  </si>
+  <si>
     <t>フォロー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>WR004</t>
+  </si>
+  <si>
+    <t>特定のユーザーをリスト化しその方の投稿を閲覧しやすくする</t>
+  </si>
+  <si>
     <t>フォロワー</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WR005</t>
+  </si>
+  <si>
+    <t>自分をフォローしているユーザーを一覧で表示</t>
+  </si>
+  <si>
+    <t>いいね</t>
+  </si>
+  <si>
+    <t>WR006</t>
+  </si>
+  <si>
+    <t>投稿に対してリアクションを残す</t>
+  </si>
+  <si>
+    <t>リプライ</t>
+  </si>
+  <si>
+    <t>WR007</t>
+  </si>
+  <si>
+    <t>他人の投稿に対してコメントを残す</t>
+  </si>
+  <si>
+    <t>問い合わせ機能</t>
+  </si>
+  <si>
+    <t>問い合わせ</t>
+  </si>
+  <si>
+    <t>WT001</t>
+  </si>
+  <si>
+    <t>FLIFREユーザーからの要望等問い合わせとそれに対する開発者からの返信を行う</t>
   </si>
 </sst>
 </file>
@@ -299,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -335,13 +456,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,6 +508,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -710,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I39"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -721,7 +876,7 @@
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
@@ -738,10 +893,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="2:9">
       <c r="E3" s="4" t="s">
@@ -753,26 +908,28 @@
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="13">
         <v>44719</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9">
       <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9">
       <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="13">
+        <v>44720</v>
+      </c>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" ht="21">
       <c r="B6" s="6" t="s">
@@ -819,14 +976,19 @@
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2">
+        <f>SUM(B8, 1)</f>
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -837,16 +999,21 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="2">
+        <f t="shared" ref="B10:B40" si="0">SUM(B9, 1)</f>
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -857,16 +1024,21 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="27">
       <c r="B11" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -877,14 +1049,21 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -895,14 +1074,21 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="2">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -913,14 +1099,21 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="40.5">
       <c r="B14" s="2">
+        <f>SUM(B13, 1)</f>
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -931,351 +1124,327 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="27">
       <c r="B15" s="2">
+        <f>SUM(B14, 1)</f>
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="2">
+        <f>SUM(B15, 1)</f>
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="F16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="27">
       <c r="B17" s="2">
+        <f>SUM(B16, 1)</f>
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9">
+        <v>49</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="27">
       <c r="B18" s="2">
+        <f>SUM(B17, 1)</f>
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9">
+        <v>52</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="27">
       <c r="B19" s="2">
+        <f>SUM(B18, 1)</f>
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9">
+        <v>56</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="27">
       <c r="B20" s="2">
+        <f>SUM(B19, 1)</f>
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="2">
+        <f>SUM(B20, 1)</f>
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9">
+        <v>62</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="27">
       <c r="B22" s="2">
+        <f>SUM(B21, 1)</f>
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9">
+        <v>65</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="27">
       <c r="B23" s="2">
+        <f>SUM(B22, 1)</f>
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="2">
+        <f>SUM(B23, 1)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="2">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+        <f>SUM(B24, 1)</f>
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="2">
+      <c r="F25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="27">
+      <c r="B26" s="8">
+        <f>SUM(B25, 1)</f>
         <v>19</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
+      <c r="C26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="2">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="2">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="2">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="2">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="2">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="2">
-        <v>25</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="2">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="2">
-        <v>27</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="2">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="2">
-        <v>29</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="2">
-        <v>30</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="2">
-        <v>31</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="2">
-        <v>32</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="2"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1289,45 +1458,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1477,11 +1620,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E826F6E-37A5-4B0D-9008-E907FB5051D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77552EF-E029-4997-AA2C-437D74B58AB2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77552EF-E029-4997-AA2C-437D74B58AB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E826F6E-37A5-4B0D-9008-E907FB5051D5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
